--- a/data/trans_dic/P56$amigo-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P56$amigo-Dificultad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.02681209902332585</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.03232918353341796</v>
+        <v>0.03232918353341797</v>
       </c>
     </row>
     <row r="5">
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01664509575442537</v>
+        <v>0.0165476938771025</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01265925765154301</v>
+        <v>0.01248514922559844</v>
       </c>
     </row>
     <row r="6">
@@ -744,32 +744,32 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2279298212216024</v>
+        <v>0.2717144994570298</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.08070992258300921</v>
+        <v>0.08083947756976025</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1263759289557948</v>
+        <v>0.1218627750012439</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.08943717647394364</v>
+        <v>0.08844481474072359</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06825423875674433</v>
+        <v>0.07420104255247</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.05900632243903367</v>
+        <v>0.05950214523201248</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.08039169597568349</v>
+        <v>0.09009597241797515</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.0714578374943543</v>
+        <v>0.0715242268757624</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.00940524207382382</v>
+        <v>0.009405242073823823</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.05739596222518108</v>
@@ -833,7 +833,7 @@
       <c r="D8" s="5" t="inlineStr"/>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
-        <v>0.01094956676889022</v>
+        <v>0.01032061657828303</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
@@ -853,7 +853,7 @@
       </c>
       <c r="M8" s="5" t="inlineStr"/>
       <c r="N8" s="5" t="n">
-        <v>0.006949586272858459</v>
+        <v>0.005748317037680101</v>
       </c>
     </row>
     <row r="9">
@@ -864,32 +864,32 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3557834274569782</v>
+        <v>0.3219349183226749</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.132938180986022</v>
+        <v>0.1274533368954952</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2482807567435977</v>
+        <v>0.2623864266997007</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07221774597637876</v>
+        <v>0.07182712021587033</v>
       </c>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="n">
-        <v>0.0327139280117754</v>
+        <v>0.03434785617104857</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1678626968415673</v>
+        <v>0.1949324879724545</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05854490374423127</v>
+        <v>0.05233968012109189</v>
       </c>
       <c r="M9" s="5" t="inlineStr"/>
       <c r="N9" s="5" t="n">
-        <v>0.04321166585348803</v>
+        <v>0.04449517171385086</v>
       </c>
     </row>
     <row r="10">
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0307123662687146</v>
+        <v>0.03327326349544316</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02915472697263863</v>
+        <v>0.02795184259956287</v>
       </c>
     </row>
     <row r="12">
@@ -982,30 +982,30 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4434869380575175</v>
+        <v>0.488963125470534</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.1900886454943402</v>
+        <v>0.1981900252139781</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.1314505697230148</v>
+        <v>0.1265680512030486</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1343187615046962</v>
+        <v>0.1412788029032778</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1858115731641951</v>
+        <v>0.2499856157841454</v>
       </c>
       <c r="L12" s="5" t="inlineStr"/>
       <c r="M12" s="5" t="n">
-        <v>0.0923654993310139</v>
+        <v>0.09907455196856536</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1242343149353144</v>
+        <v>0.1164525619943786</v>
       </c>
     </row>
     <row r="13">
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.06380584365024007</v>
+        <v>0.06380584365024006</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.02988365808890896</v>
+        <v>0.02988365808890895</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G14" s="5" t="inlineStr"/>
       <c r="H14" s="5" t="n">
-        <v>0.05135829558814879</v>
+        <v>0.05118776933897253</v>
       </c>
       <c r="I14" s="5" t="inlineStr"/>
       <c r="J14" s="5" t="n">
@@ -1079,11 +1079,11 @@
       </c>
       <c r="K14" s="5" t="inlineStr"/>
       <c r="L14" s="5" t="n">
-        <v>0.03716013430576326</v>
+        <v>0.03531465698800391</v>
       </c>
       <c r="M14" s="5" t="inlineStr"/>
       <c r="N14" s="5" t="n">
-        <v>0.009354715057819572</v>
+        <v>0.009140672728742028</v>
       </c>
     </row>
     <row r="15">
@@ -1097,23 +1097,23 @@
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.244686920630842</v>
+        <v>0.1894070192992754</v>
       </c>
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="5" t="n">
-        <v>0.4364000326696286</v>
+        <v>0.3933007511645205</v>
       </c>
       <c r="I15" s="5" t="inlineStr"/>
       <c r="J15" s="5" t="n">
-        <v>0.09328396412846879</v>
+        <v>0.09547165754503585</v>
       </c>
       <c r="K15" s="5" t="inlineStr"/>
       <c r="L15" s="5" t="n">
-        <v>0.3038113412699026</v>
+        <v>0.3249307016795767</v>
       </c>
       <c r="M15" s="5" t="inlineStr"/>
       <c r="N15" s="5" t="n">
-        <v>0.1007176342045478</v>
+        <v>0.1102136833740629</v>
       </c>
     </row>
     <row r="16">
@@ -1172,36 +1172,36 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02157023248618966</v>
+        <v>0.02179651737619683</v>
       </c>
       <c r="D17" s="5" t="inlineStr"/>
       <c r="E17" s="5" t="inlineStr"/>
       <c r="F17" s="5" t="n">
-        <v>0.01385945346027956</v>
+        <v>0.01236858423801795</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0101839170605638</v>
+        <v>0.01034351678289747</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.005519214731219893</v>
+        <v>0.005732669760759168</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01980781374395407</v>
+        <v>0.02065214060029703</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.007637527631814672</v>
+        <v>0.007633016262788001</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.007509480352172814</v>
+        <v>0.007449196939234896</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.004016255886413372</v>
+        <v>0.003951260593367793</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02337044102823022</v>
+        <v>0.02330408143724237</v>
       </c>
     </row>
     <row r="18">
@@ -1212,36 +1212,36 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1753336757192929</v>
+        <v>0.1550665592695865</v>
       </c>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.08186678863477623</v>
+        <v>0.07899752120273411</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.06865871647158722</v>
+        <v>0.06220390460321911</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05912158028023264</v>
+        <v>0.05957339118311558</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05472327815364279</v>
+        <v>0.05146175137401037</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05507000514279119</v>
+        <v>0.05479125767246214</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07014365041119335</v>
+        <v>0.07691272864124209</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03948785385157714</v>
+        <v>0.03978365623998715</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03701726953898844</v>
+        <v>0.03424000609667172</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.0529955485820928</v>
+        <v>0.05308824067118617</v>
       </c>
     </row>
     <row r="19">
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1228</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="7">
@@ -1548,32 +1548,32 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5071</v>
+        <v>6045</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>5563</v>
+        <v>5572</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>8280</v>
+        <v>7984</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>6447</v>
+        <v>6375</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>4856</v>
+        <v>5279</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>5576</v>
+        <v>5623</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>7197</v>
+        <v>8066</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>6931</v>
+        <v>6938</v>
       </c>
     </row>
     <row r="8">
@@ -1681,7 +1681,7 @@
       <c r="D10" s="6" t="inlineStr"/>
       <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="n">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="M10" s="6" t="inlineStr"/>
       <c r="N10" s="6" t="n">
-        <v>967</v>
+        <v>800</v>
       </c>
     </row>
     <row r="11">
@@ -1712,32 +1712,32 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5015</v>
+        <v>4538</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>5110</v>
+        <v>4899</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>5805</v>
+        <v>6134</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>5525</v>
+        <v>5495</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>3295</v>
+        <v>3460</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>6291</v>
+        <v>7305</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>5991</v>
+        <v>5356</v>
       </c>
       <c r="M11" s="6" t="inlineStr"/>
       <c r="N11" s="6" t="n">
-        <v>6014</v>
+        <v>6192</v>
       </c>
     </row>
     <row r="12">
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1771</v>
+        <v>1919</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>2357</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="15">
@@ -1874,30 +1874,30 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4124</v>
+        <v>4547</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>4401</v>
+        <v>4589</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>5452</v>
+        <v>5250</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>7747</v>
+        <v>8148</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>4230</v>
+        <v>5691</v>
       </c>
       <c r="L15" s="6" t="inlineStr"/>
       <c r="M15" s="6" t="n">
-        <v>5053</v>
+        <v>5420</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>10042</v>
+        <v>9413</v>
       </c>
     </row>
     <row r="16">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
@@ -2015,11 +2015,11 @@
       </c>
       <c r="K18" s="6" t="inlineStr"/>
       <c r="L18" s="6" t="n">
-        <v>966</v>
+        <v>918</v>
       </c>
       <c r="M18" s="6" t="inlineStr"/>
       <c r="N18" s="6" t="n">
-        <v>594</v>
+        <v>580</v>
       </c>
     </row>
     <row r="19">
@@ -2033,23 +2033,23 @@
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>5400</v>
+        <v>4180</v>
       </c>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="n">
-        <v>8561</v>
+        <v>7715</v>
       </c>
       <c r="I19" s="6" t="inlineStr"/>
       <c r="J19" s="6" t="n">
-        <v>3863</v>
+        <v>3953</v>
       </c>
       <c r="K19" s="6" t="inlineStr"/>
       <c r="L19" s="6" t="n">
-        <v>7898</v>
+        <v>8447</v>
       </c>
       <c r="M19" s="6" t="inlineStr"/>
       <c r="N19" s="6" t="n">
-        <v>6393</v>
+        <v>6996</v>
       </c>
     </row>
     <row r="20">
@@ -2152,36 +2152,36 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1002</v>
+        <v>1013</v>
       </c>
       <c r="D22" s="6" t="inlineStr"/>
       <c r="E22" s="6" t="inlineStr"/>
       <c r="F22" s="6" t="n">
-        <v>1505</v>
+        <v>1343</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2079</v>
+        <v>2111</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>942</v>
+        <v>978</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>5386</v>
+        <v>5615</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>2122</v>
+        <v>2105</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>972</v>
+        <v>956</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>8892</v>
+        <v>8867</v>
       </c>
     </row>
     <row r="23">
@@ -2192,36 +2192,36 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>8147</v>
+        <v>7205</v>
       </c>
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>8889</v>
+        <v>8577</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>6264</v>
+        <v>5675</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>12069</v>
+        <v>12161</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>9339</v>
+        <v>8782</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>14973</v>
+        <v>14897</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>9659</v>
+        <v>10591</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>11161</v>
+        <v>11244</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>8956</v>
+        <v>8284</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>20163</v>
+        <v>20198</v>
       </c>
     </row>
     <row r="24">
